--- a/docs/ADCPot.xlsx
+++ b/docs/ADCPot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allen\Documents\code\mbed-mazda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allen\Documents\code\mbed-mazda-bak\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Button</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>Hex Threshold</t>
+  </si>
+  <si>
+    <t>In Hex</t>
+  </si>
+  <si>
+    <t>Low Thresh</t>
+  </si>
+  <si>
+    <t>Thresh Hex</t>
+  </si>
+  <si>
+    <t>Vout2</t>
+  </si>
+  <si>
+    <t>Float Range3</t>
+  </si>
+  <si>
+    <t>ΔFloat4</t>
+  </si>
+  <si>
+    <t>64k Range5</t>
   </si>
 </sst>
 </file>
@@ -108,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,21 +138,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -157,24 +193,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -208,6 +399,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -215,102 +437,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Rp 500</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>149.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>303.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34767</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52640</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59627</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Rp 1k</c:v>
+            <c:v>Series 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -373,25 +503,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3475</c:v>
+                  <c:v>5510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8503</c:v>
+                  <c:v>12872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15255</c:v>
+                  <c:v>21768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23659</c:v>
+                  <c:v>31512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33410</c:v>
+                  <c:v>41306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43985</c:v>
+                  <c:v>50455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54696</c:v>
+                  <c:v>58467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,11 +536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231761264"/>
-        <c:axId val="232334120"/>
+        <c:axId val="202340456"/>
+        <c:axId val="203433824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231761264"/>
+        <c:axId val="202340456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,12 +597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232334120"/>
+        <c:crossAx val="203433824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232334120"/>
+        <c:axId val="203433824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231761264"/>
+        <c:crossAx val="202340456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -541,38 +671,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1176,7 +1274,7 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -1464,24 +1562,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1497,442 +1597,508 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="3"/>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="2">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
+      <c r="J2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>56</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="10">
         <f>3.3/(1+$D$1/($B3+$B$1))</f>
         <v>0.33237410071942441</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <f>C3/3.3</f>
         <v>0.10071942446043165</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2">
+      <c r="E3" s="11"/>
+      <c r="F3" s="9">
         <f>FLOOR(D3*65536, 1)</f>
         <v>6600</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="10">
+      <c r="G3" s="9"/>
+      <c r="H3" s="12">
         <v>0</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="13" t="str">
         <f>DEC2HEX(H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="10">
         <f>3.3/(1+K$1/($B3+$B$1))</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K3" s="6">
+        <v>0.27747747747747747</v>
+      </c>
+      <c r="K3" s="11">
         <f>J3/3.3</f>
-        <v>5.3030303030303032E-2</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="2">
-        <f>FLOOR(K3*65536, 1)</f>
-        <v>3475</v>
-      </c>
-      <c r="N3" s="3"/>
+        <v>8.408408408408409E-2</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9">
+        <f>FLOOR((B3*65535)/(B3+$K$1), 1)</f>
+        <v>5510</v>
+      </c>
+      <c r="N3" s="13" t="str">
+        <f>DEC2HEX(M3)</f>
+        <v>1586</v>
+      </c>
+      <c r="O3" s="9">
+        <f>M3/2</f>
+        <v>2755</v>
+      </c>
+      <c r="P3" s="14" t="str">
+        <f>DEC2HEX(O3)</f>
+        <v>AC3</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>149.1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="0">3.3/(1+$D$1/($B4+$B$1))</f>
         <v>0.7580187952549684</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="17">
         <f t="shared" ref="D4:D9" si="1">C4/3.3</f>
         <v>0.22970266522877833</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="17">
         <f>D4-D3</f>
         <v>0.12898324076834666</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F9" si="2">FLOOR(D4*65536, 1)</f>
         <v>15053</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="18">
         <f>F4-F3</f>
         <v>8453</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="19">
         <f>ROUND(AVERAGE(F3:F4), 0)</f>
         <v>10827</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="20" t="str">
         <f t="shared" ref="I4:I9" si="3">DEC2HEX(H4)</f>
         <v>2A4B</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="16">
         <f t="shared" ref="J4:J9" si="4">3.3/(1+K$1/($B4+$B$1))</f>
-        <v>0.4281872769993908</v>
-      </c>
-      <c r="K4" s="6">
+        <v>0.64817547095244366</v>
+      </c>
+      <c r="K4" s="17">
         <f t="shared" ref="K4:K9" si="5">J4/3.3</f>
-        <v>0.12975372030284571</v>
-      </c>
-      <c r="L4" s="6">
+        <v>0.19641680937952838</v>
+      </c>
+      <c r="L4" s="17">
         <f>K4-K3</f>
-        <v>7.6723417272542671E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M9" si="6">FLOOR(K4*65536, 1)</f>
-        <v>8503</v>
-      </c>
-      <c r="N4" s="7">
-        <f>M4-M3</f>
-        <v>5028</v>
+        <v>0.11233272529544429</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4:M9" si="6">FLOOR((B4*65535)/(B4+$K$1), 1)</f>
+        <v>12872</v>
+      </c>
+      <c r="N4" s="20" t="str">
+        <f t="shared" ref="N4:N9" si="7">DEC2HEX(M4)</f>
+        <v>3248</v>
+      </c>
+      <c r="O4" s="18">
+        <f>AVERAGE(M3:M4)</f>
+        <v>9191</v>
+      </c>
+      <c r="P4" s="21" t="str">
+        <f t="shared" ref="P4:P9" si="8">DEC2HEX(O4)</f>
+        <v>23E7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>303.39999999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="23">
         <f t="shared" si="0"/>
         <v>1.2462285287528005</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="24">
         <f t="shared" si="1"/>
         <v>0.37764500871296991</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:G9" si="7">D5-D4</f>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:G9" si="9">D5-D4</f>
         <v>0.14794234348419158</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="22">
         <f t="shared" si="2"/>
         <v>24749</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="7"/>
+      <c r="G5" s="25">
+        <f t="shared" si="9"/>
         <v>9696</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H9" si="8">ROUND(AVERAGE(F4:F5), 0)</f>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H9" si="10">ROUND(AVERAGE(F4:F5), 0)</f>
         <v>19901</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="27" t="str">
         <f t="shared" si="3"/>
         <v>4DBD</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="23">
         <f t="shared" si="4"/>
-        <v>0.76816019640939082</v>
-      </c>
-      <c r="K5" s="6">
+        <v>1.0961462666958615</v>
+      </c>
+      <c r="K5" s="24">
         <f>J5/3.3</f>
-        <v>0.23277581709375481</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5" si="9">K5-K4</f>
-        <v>0.1030220967909091</v>
-      </c>
-      <c r="M5" s="2">
+        <v>0.3321655353623823</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" ref="L5" si="11">K5-K4</f>
+        <v>0.13574872598285392</v>
+      </c>
+      <c r="M5" s="22">
         <f t="shared" si="6"/>
-        <v>15255</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" ref="N5" si="10">M5-M4</f>
-        <v>6752</v>
+        <v>21768</v>
+      </c>
+      <c r="N5" s="27" t="str">
+        <f t="shared" si="7"/>
+        <v>5508</v>
+      </c>
+      <c r="O5" s="25">
+        <f t="shared" ref="O5:O9" si="12">AVERAGE(M4:M5)</f>
+        <v>17320</v>
+      </c>
+      <c r="P5" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v>43A8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>565</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>1.7507042253521126</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="17">
         <f t="shared" si="1"/>
         <v>0.53051643192488263</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" si="7"/>
+      <c r="E6" s="17">
+        <f t="shared" si="9"/>
         <v>0.15287142321191272</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
         <v>34767</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="7"/>
+      <c r="G6" s="18">
+        <f t="shared" si="9"/>
         <v>10018</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="8"/>
+      <c r="H6" s="19">
+        <f t="shared" si="10"/>
         <v>29758</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="20" t="str">
         <f t="shared" si="3"/>
         <v>743E</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <f t="shared" si="4"/>
-        <v>1.1913738019169329</v>
-      </c>
-      <c r="K6" s="6">
+        <v>1.5868085106382979</v>
+      </c>
+      <c r="K6" s="17">
         <f t="shared" si="5"/>
-        <v>0.36102236421725242</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ref="L6" si="11">K6-K5</f>
-        <v>0.12824654712349762</v>
-      </c>
-      <c r="M6" s="2">
+        <v>0.48085106382978726</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" ref="L6" si="13">K6-K5</f>
+        <v>0.14868552846740496</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="6"/>
-        <v>23659</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6" si="12">M6-M5</f>
-        <v>8404</v>
+        <v>31512</v>
+      </c>
+      <c r="N6" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>7B18</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="12"/>
+        <v>26640</v>
+      </c>
+      <c r="P6" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>6810</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>1040</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="23">
         <f t="shared" si="0"/>
         <v>2.2285714285714282</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="24">
         <f t="shared" si="1"/>
         <v>0.67532467532467522</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" si="7"/>
+      <c r="E7" s="24">
+        <f t="shared" si="9"/>
         <v>0.14480824339979259</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="22">
         <f t="shared" si="2"/>
         <v>44258</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="7"/>
+      <c r="G7" s="25">
+        <f t="shared" si="9"/>
         <v>9491</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="8"/>
+      <c r="H7" s="26">
+        <f t="shared" si="10"/>
         <v>39513</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="27" t="str">
         <f t="shared" si="3"/>
         <v>9A59</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="23">
         <f t="shared" si="4"/>
-        <v>1.6823529411764704</v>
-      </c>
-      <c r="K7" s="6">
+        <v>2.0799999999999996</v>
+      </c>
+      <c r="K7" s="24">
         <f t="shared" si="5"/>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ref="L7" si="13">K7-K6</f>
-        <v>0.14878155735137499</v>
-      </c>
-      <c r="M7" s="2">
+        <v>0.63030303030303025</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" ref="L7" si="14">K7-K6</f>
+        <v>0.14945196647324299</v>
+      </c>
+      <c r="M7" s="22">
         <f t="shared" si="6"/>
-        <v>33410</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7" si="14">M7-M6</f>
-        <v>9751</v>
+        <v>41306</v>
+      </c>
+      <c r="N7" s="27" t="str">
+        <f t="shared" si="7"/>
+        <v>A15A</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" si="12"/>
+        <v>36409</v>
+      </c>
+      <c r="P7" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v>8E39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>2041</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>2.6506493506493505</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="17">
         <f t="shared" si="1"/>
         <v>0.80322707595434872</v>
       </c>
-      <c r="E8" s="6">
-        <f t="shared" si="7"/>
+      <c r="E8" s="17">
+        <f t="shared" si="9"/>
         <v>0.12790240062967351</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="15">
         <f t="shared" si="2"/>
         <v>52640</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="7"/>
+      <c r="G8" s="18">
+        <f t="shared" si="9"/>
         <v>8382</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" si="8"/>
+      <c r="H8" s="19">
+        <f t="shared" si="10"/>
         <v>48449</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>BD41</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="16">
         <f t="shared" si="4"/>
-        <v>2.2148306478132191</v>
-      </c>
-      <c r="K8" s="6">
+        <v>2.5406639004149376</v>
+      </c>
+      <c r="K8" s="17">
         <f t="shared" si="5"/>
-        <v>0.6711608023676422</v>
-      </c>
-      <c r="L8" s="6">
+        <v>0.76989815164089026</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" ref="L8" si="15">K8-K7</f>
-        <v>0.16135688079901478</v>
-      </c>
-      <c r="M8" s="2">
+        <v>0.13959512133786001</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="6"/>
-        <v>43985</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" ref="N8" si="16">M8-M7</f>
-        <v>10575</v>
+        <v>50455</v>
+      </c>
+      <c r="N8" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>C517</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="12"/>
+        <v>45880.5</v>
+      </c>
+      <c r="P8" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>B338</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="29">
         <v>5046</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
         <v>3.002488279841327</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="31">
         <f t="shared" si="1"/>
         <v>0.90984493328525062</v>
       </c>
-      <c r="E9" s="6">
-        <f t="shared" si="7"/>
+      <c r="E9" s="31">
+        <f t="shared" si="9"/>
         <v>0.1066178573309019</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="29">
         <f t="shared" si="2"/>
         <v>59627</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="7"/>
+      <c r="G9" s="32">
+        <f t="shared" si="9"/>
         <v>6987</v>
       </c>
-      <c r="H9" s="10">
-        <f t="shared" si="8"/>
+      <c r="H9" s="33">
+        <f t="shared" si="10"/>
         <v>56134</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>DB46</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="30">
         <f t="shared" si="4"/>
-        <v>2.754184584849487</v>
-      </c>
-      <c r="K9" s="6">
+        <v>2.9440947666195187</v>
+      </c>
+      <c r="K9" s="31">
         <f t="shared" si="5"/>
-        <v>0.83460138934832939</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ref="L9" si="17">K9-K8</f>
-        <v>0.1634405869806872</v>
-      </c>
-      <c r="M9" s="2">
+        <v>0.89214992927864212</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" ref="L9" si="16">K9-K8</f>
+        <v>0.12225177763775186</v>
+      </c>
+      <c r="M9" s="29">
         <f t="shared" si="6"/>
-        <v>54696</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9" si="18">M9-M8</f>
-        <v>10711</v>
+        <v>58467</v>
+      </c>
+      <c r="N9" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>E463</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="12"/>
+        <v>54461</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>D4BD</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +2118,7 @@
         <v>244</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C23" si="19">ROUND(AVERAGE(B17:B18), 0)</f>
+        <f t="shared" ref="C17:C23" si="17">ROUND(AVERAGE(B17:B18), 0)</f>
         <v>239</v>
       </c>
     </row>
@@ -1964,7 +2130,7 @@
         <v>234</v>
       </c>
       <c r="C18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>229</v>
       </c>
     </row>
@@ -1976,7 +2142,7 @@
         <v>224</v>
       </c>
       <c r="C19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>219</v>
       </c>
     </row>
@@ -1988,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="C20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>204</v>
       </c>
     </row>
@@ -2000,7 +2166,7 @@
         <v>195</v>
       </c>
       <c r="C21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>181</v>
       </c>
     </row>
@@ -2012,7 +2178,7 @@
         <v>167</v>
       </c>
       <c r="C22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>142</v>
       </c>
     </row>
@@ -2024,7 +2190,7 @@
         <v>116</v>
       </c>
       <c r="C23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
     </row>
